--- a/source_plates/220622_source_plate2.xlsx
+++ b/source_plates/220622_source_plate2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rycar\Documents\GitHub\WHISPR\source_plates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\WHISPR\source_plates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A255B9-6683-49A1-BAF8-8183B27D84B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C736855E-40E5-4F64-9623-71D01D086995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21225" yWindow="4215" windowWidth="15915" windowHeight="16230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="70">
   <si>
     <t>Plasmid</t>
   </si>
@@ -223,9 +223,6 @@
   </si>
   <si>
     <t>D16</t>
-  </si>
-  <si>
-    <t>need to add 14ul</t>
   </si>
   <si>
     <t>pDA313</t>
@@ -677,21 +674,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="169" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.68359375" customWidth="1"/>
-    <col min="2" max="2" width="15.15625" customWidth="1"/>
-    <col min="9" max="9" width="9.83984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -714,7 +711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -733,7 +730,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -747,7 +744,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -761,10 +758,10 @@
         <v>554.29999999999995</v>
       </c>
       <c r="E4">
-        <v>41.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>37.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -780,8 +777,9 @@
       <c r="E5">
         <v>27.65</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -795,10 +793,10 @@
         <v>219.2</v>
       </c>
       <c r="E6">
-        <v>31.55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -816,8 +814,9 @@
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -835,8 +834,9 @@
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -854,8 +854,9 @@
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -869,12 +870,12 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -884,17 +885,14 @@
       <c r="C11" t="s">
         <v>40</v>
       </c>
-      <c r="D11">
-        <v>133.6</v>
+      <c r="D11" s="6">
+        <v>226.1</v>
       </c>
       <c r="E11">
-        <v>54</v>
-      </c>
-      <c r="G11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>62.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
@@ -908,10 +906,10 @@
         <v>353.9</v>
       </c>
       <c r="E12" s="7">
-        <v>48.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>42.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -925,12 +923,12 @@
         <v>2.08</v>
       </c>
       <c r="E13" s="7">
-        <v>39.1</v>
+        <v>37.425000000000004</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>55</v>
       </c>
@@ -944,15 +942,13 @@
         <v>2.08</v>
       </c>
       <c r="E14">
-        <v>40</v>
-      </c>
-      <c r="G14" t="s">
-        <v>38</v>
+        <v>38.375</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -966,12 +962,13 @@
         <v>30</v>
       </c>
       <c r="E15">
-        <v>38.549999999999997</v>
+        <v>37.75</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -985,12 +982,13 @@
         <v>30</v>
       </c>
       <c r="E16">
-        <v>38.15</v>
+        <v>36.65</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -1004,12 +1002,13 @@
         <v>30</v>
       </c>
       <c r="E17">
-        <v>37.6</v>
+        <v>35.75</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
@@ -1027,8 +1026,9 @@
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>41</v>
       </c>
@@ -1042,10 +1042,11 @@
         <v>33.799999999999997</v>
       </c>
       <c r="E19" s="7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>39.75</v>
+      </c>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>43</v>
       </c>
@@ -1059,10 +1060,11 @@
         <v>41.3</v>
       </c>
       <c r="E20" s="7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>39.549999999999997</v>
+      </c>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>45</v>
       </c>
@@ -1076,10 +1078,12 @@
         <v>21.6</v>
       </c>
       <c r="E21" s="7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>38.85</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>23</v>
       </c>
@@ -1095,8 +1099,9 @@
       <c r="E22" s="7">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>48</v>
       </c>
@@ -1110,10 +1115,11 @@
         <v>33.700000000000003</v>
       </c>
       <c r="E23" s="7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>39.450000000000003</v>
+      </c>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>50</v>
       </c>
@@ -1127,10 +1133,11 @@
         <v>34.6</v>
       </c>
       <c r="E24" s="7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>39.25</v>
+      </c>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>41</v>
       </c>
@@ -1145,11 +1152,12 @@
         <v>5</v>
       </c>
       <c r="E25" s="7">
-        <v>40</v>
+        <v>39.85</v>
       </c>
       <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>43</v>
       </c>
@@ -1164,11 +1172,12 @@
         <v>5</v>
       </c>
       <c r="E26" s="7">
-        <v>40</v>
+        <v>39.85</v>
       </c>
       <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>45</v>
       </c>
@@ -1186,8 +1195,9 @@
         <v>40</v>
       </c>
       <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>23</v>
       </c>
@@ -1205,8 +1215,9 @@
         <v>40</v>
       </c>
       <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>48</v>
       </c>
@@ -1221,11 +1232,12 @@
         <v>5</v>
       </c>
       <c r="E29" s="7">
-        <v>40</v>
+        <v>39.85</v>
       </c>
       <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>50</v>
       </c>
@@ -1240,19 +1252,20 @@
         <v>5</v>
       </c>
       <c r="E30" s="7">
-        <v>40</v>
+        <v>39.85</v>
       </c>
       <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D31" s="9">
         <v>5</v>
@@ -1263,16 +1276,17 @@
       <c r="G31" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="9">
         <v>5</v>
@@ -1283,6 +1297,7 @@
       <c r="G32" t="s">
         <v>38</v>
       </c>
+      <c r="K32" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
